--- a/data and code/Raw data/Figure3/see.xlsx
+++ b/data and code/Raw data/Figure3/see.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Publications\2024_osmReview\data and code\Raw data\Figure3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\PhD\Writing\J_OSMassessment\OSM_review\figs_vos_bib\author_move\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C002A917-3AAA-4F2F-BFB0-D58D8D5E24EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D68D13-FC9A-4CC5-B2D2-6BCFF228CEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5980" windowHeight="1890" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <pivotCaches>
-    <pivotCache cacheId="95" r:id="rId3"/>
-  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -189,22 +185,13 @@
   </si>
   <si>
     <t>International Institute for Applied Systems Analysis (IIASA)</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -242,19 +229,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,155 +252,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sun, Yao" refreshedDate="45732.900108680558" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="18" xr:uid="{359CC8B0-847F-4B00-BC90-9FAFA8F9C34A}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="C2:C20" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="1">
-    <cacheField name="year" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2015" maxValue="2021" count="7">
-        <n v="2021"/>
-        <n v="2020"/>
-        <n v="2019"/>
-        <n v="2018"/>
-        <n v="2017"/>
-        <n v="2016"/>
-        <n v="2015"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="18">
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEC72938-D662-464E-9F68-B1DA4220B3EA}" name="PivotTable30" cacheId="95" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of year" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,105 +570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760ED7DA-2C91-4054-BF77-CEFB8EA5A3C4}">
-  <dimension ref="A3:B11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="7">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.453125" customWidth="1"/>
     <col min="2" max="2" width="50.1796875" customWidth="1"/>
@@ -846,19 +588,19 @@
     <col min="8" max="8" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -882,11 +624,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C3">
@@ -908,11 +650,11 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C4">
@@ -934,11 +676,11 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C5">
@@ -960,11 +702,11 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C6">
@@ -986,11 +728,11 @@
         <v>5.1669999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C7">
@@ -1012,11 +754,11 @@
         <v>5.8570000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C8">
@@ -1038,11 +780,11 @@
         <v>1.429</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C9">
@@ -1064,11 +806,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C10">
@@ -1090,11 +832,11 @@
         <v>2.875</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C11">
@@ -1116,11 +858,11 @@
         <v>6.375</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C12">
@@ -1142,11 +884,11 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C13">
@@ -1168,11 +910,11 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C14">
@@ -1194,11 +936,11 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C15">
@@ -1220,11 +962,11 @@
         <v>4.7779999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C16">
@@ -1246,11 +988,11 @@
         <v>7.1109999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C17">
@@ -1272,11 +1014,11 @@
         <v>5.444</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C18">
@@ -1298,11 +1040,11 @@
         <v>5.2220000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C19">
@@ -1324,11 +1066,11 @@
         <v>4.444</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C20">
